--- a/data/btc_price.xlsx
+++ b/data/btc_price.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7812"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -368,18 +368,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -516,6 +516,14 @@
       </c>
       <c r="B17" s="1">
         <v>90228.67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B18" s="1">
+        <v>75269.850000000006</v>
       </c>
     </row>
   </sheetData>
@@ -530,7 +538,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -543,7 +551,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
